--- a/interview0.xlsx
+++ b/interview0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>time spend on a single sheet</t>
-  </si>
-  <si>
-    <t>sum of time spend per student</t>
-  </si>
-  <si>
-    <t>quality mark (parametrisable)</t>
   </si>
   <si>
     <t>?</t>
@@ -444,7 +438,7 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,26 +448,20 @@
     <col min="4" max="4" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -481,21 +469,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -503,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -511,15 +493,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,52 +509,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -583,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -592,7 +574,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -600,7 +582,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -608,10 +590,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -619,7 +601,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -635,13 +617,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
